--- a/not_included/create_labor_vocabulary.xlsx
+++ b/not_included/create_labor_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/iotables/not_included/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{40A11583-1F1C-491F-8FE3-8CF9C51A9EF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{4953C8AD-A16F-4D62-A003-2224F8B6A79F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{40A11583-1F1C-491F-8FE3-8CF9C51A9EF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{A348F5A8-E4C5-4F3E-AAA2-BC8621EB6B69}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="258">
   <si>
     <t>description</t>
   </si>
@@ -790,52 +790,10 @@
     <t>prod_na_group</t>
   </si>
   <si>
-    <t>CPA_C10-13</t>
-  </si>
-  <si>
-    <t>CPA_C10-14</t>
-  </si>
-  <si>
-    <t>CPA_C13-16</t>
-  </si>
-  <si>
-    <t>CPA_C13-17</t>
-  </si>
-  <si>
-    <t>CPA_C31_33</t>
-  </si>
-  <si>
-    <t>CPA_E37-40</t>
-  </si>
-  <si>
-    <t>CPA_J59_61</t>
-  </si>
-  <si>
-    <t>CPA_J62_64</t>
-  </si>
-  <si>
-    <t>CPA_M69_71</t>
-  </si>
-  <si>
-    <t>CPA_M74_76</t>
-  </si>
-  <si>
-    <t>CPA_R90-93</t>
-  </si>
-  <si>
-    <t>CPA_R90-94</t>
-  </si>
-  <si>
-    <t>CPA_Q87_89</t>
-  </si>
-  <si>
-    <t>CPA_N80-83</t>
-  </si>
-  <si>
-    <t>CPA_N80-84</t>
-  </si>
-  <si>
     <t>labor_code</t>
+  </si>
+  <si>
+    <t>CPA_L68B</t>
   </si>
 </sst>
 </file>
@@ -1678,17 +1636,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1820,7 +1781,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
@@ -1834,7 +1795,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
         <v>185</v>
@@ -1862,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
         <v>185</v>
@@ -1876,7 +1837,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
         <v>185</v>
@@ -2114,7 +2075,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
         <v>185</v>
@@ -2184,7 +2145,7 @@
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
         <v>185</v>
@@ -2211,8 +2172,11 @@
       <c r="B38" t="s">
         <v>74</v>
       </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,8 +2186,11 @@
       <c r="B39" t="s">
         <v>76</v>
       </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,7 +2369,7 @@
         <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
         <v>220</v>
@@ -2444,7 +2411,7 @@
         <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
         <v>220</v>
@@ -2499,6 +2466,9 @@
       <c r="B59" t="s">
         <v>116</v>
       </c>
+      <c r="C59" t="s">
+        <v>257</v>
+      </c>
       <c r="D59" t="s">
         <v>229</v>
       </c>
@@ -2525,7 +2495,7 @@
         <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
         <v>230</v>
@@ -2595,7 +2565,7 @@
         <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D66" t="s">
         <v>230</v>
@@ -2665,7 +2635,7 @@
         <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s">
         <v>230</v>
@@ -2679,7 +2649,7 @@
         <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
         <v>230</v>
@@ -2757,7 +2727,7 @@
         <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D78" t="s">
         <v>243</v>
@@ -2785,7 +2755,7 @@
         <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D80" t="s">
         <v>246</v>
@@ -2799,7 +2769,7 @@
         <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D81" t="s">
         <v>246</v>
@@ -2925,7 +2895,7 @@
         <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
         <v>185</v>
